--- a/doc/SV Mobile Image with review 180727.xlsx
+++ b/doc/SV Mobile Image with review 180727.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\djdeng\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2014\SolarValueSystem\sv-vue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F650B56F-9570-49BC-B7AE-6AF73665EB5C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{387BE8A1-C118-4751-B7B2-680A5FFC8E98}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8865" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8865" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表示形式" sheetId="27" r:id="rId1"/>
@@ -850,25 +850,25 @@
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>3150</c:v>
+                  <c:v>3675</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5320</c:v>
+                  <c:v>5915</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7800</c:v>
+                  <c:v>8475</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11320</c:v>
+                  <c:v>12215</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14920</c:v>
+                  <c:v>15815</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18055</c:v>
+                  <c:v>18760</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21455</c:v>
+                  <c:v>22160</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14495,10 +14495,10 @@
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>425824</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>168088</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>268941</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14514,7 +14514,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="814106" y="2539813"/>
-          <a:ext cx="1034865" cy="463363"/>
+          <a:ext cx="1572747" cy="553011"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17076,10 +17076,10 @@
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>537730</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>100853</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>122416</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -17109,8 +17109,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1914525" y="7705725"/>
-          <a:ext cx="2128405" cy="695325"/>
+          <a:off x="1918447" y="7702363"/>
+          <a:ext cx="2384612" cy="779641"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17321,15 +17321,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:colOff>190499</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>560295</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>493058</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>56030</xdr:rowOff>
+      <xdr:rowOff>100853</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -17344,8 +17344,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="918882" y="8673913"/>
-          <a:ext cx="1064560" cy="313205"/>
+          <a:off x="918881" y="8673913"/>
+          <a:ext cx="1692089" cy="358028"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19046,8 +19046,8 @@
   </sheetPr>
   <dimension ref="A3:Z59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19343,19 +19343,19 @@
       </c>
       <c r="R25" s="1">
         <f ca="1">R21*RANDBETWEEN(30,35)</f>
-        <v>3150</v>
+        <v>3675</v>
       </c>
       <c r="S25" s="1">
         <f t="shared" ref="S25:X25" ca="1" si="1">S21*RANDBETWEEN(30,35)</f>
-        <v>2170</v>
+        <v>2240</v>
       </c>
       <c r="T25" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2480</v>
+        <v>2560</v>
       </c>
       <c r="U25" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3520</v>
+        <v>3740</v>
       </c>
       <c r="V25" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -19363,7 +19363,7 @@
       </c>
       <c r="W25" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3135</v>
+        <v>2945</v>
       </c>
       <c r="X25" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -19402,31 +19402,31 @@
       </c>
       <c r="R27" s="1">
         <f ca="1">R25</f>
-        <v>3150</v>
+        <v>3675</v>
       </c>
       <c r="S27" s="1">
         <f ca="1">R27+S25</f>
-        <v>5320</v>
+        <v>5915</v>
       </c>
       <c r="T27" s="1">
         <f t="shared" ref="T27:X27" ca="1" si="2">S27+T25</f>
-        <v>7800</v>
+        <v>8475</v>
       </c>
       <c r="U27" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>11320</v>
+        <v>12215</v>
       </c>
       <c r="V27" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>14920</v>
+        <v>15815</v>
       </c>
       <c r="W27" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>18055</v>
+        <v>18760</v>
       </c>
       <c r="X27" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>21455</v>
+        <v>22160</v>
       </c>
     </row>
     <row r="28" spans="11:24">
@@ -19739,8 +19739,8 @@
   </sheetPr>
   <dimension ref="A3:Y23"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
